--- a/informe de cuentas gabriel.xlsx
+++ b/informe de cuentas gabriel.xlsx
@@ -13,6 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Gabriel informe" sheetId="1" r:id="rId1"/>
+    <sheet name="Anexo1" sheetId="2" r:id="rId2"/>
+    <sheet name="Anexo2" sheetId="3" r:id="rId3"/>
+    <sheet name="Anexo3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="256">
   <si>
     <t>Plomería de Cada apartamento del 3,4 y 5 El segundo piso ya estaba pago. 800.000 Por cada uno.</t>
   </si>
@@ -35,27 +38,15 @@
     <t>Instalación de las redes de gas de Cada apartamento del 2, 3,4 y 5 300.000 Por cada uno.</t>
   </si>
   <si>
-    <t>Enchape, Lavamanos, baños e incrustaciones de cada baño.  560.000 por cada baño OJO este valor incluía el revoque, del baño.  Total de 2 baños del segundo piso.</t>
-  </si>
-  <si>
     <t>Instalación de la cerámica del 2 piso 12.000 x 75 M2</t>
   </si>
   <si>
     <t>Instalación de la zócalo del 2 piso 3.000 x 82 ML</t>
   </si>
   <si>
-    <t>Instalación de drywall de los baños del 2 piso 150.000 por baños</t>
-  </si>
-  <si>
     <t>Instalación de puertas principales de los apartamentos a 60.000 cada una son 4.</t>
   </si>
   <si>
-    <t>Instalación de lavadero  del 2 piso.</t>
-  </si>
-  <si>
-    <t>Tapar con drywall los bajantes Del segundo piso.</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Instalación del Moterio del 2 Piso</t>
-  </si>
-  <si>
     <t>Instalcion del sistema del bombeo</t>
   </si>
   <si>
@@ -86,18 +74,9 @@
     <t xml:space="preserve">Se le reconoce un millon de pesos adicionales por limpieza, transporte de material etc. </t>
   </si>
   <si>
-    <t xml:space="preserve">Lavada de cada apartamento </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lavada de zona comun </t>
   </si>
   <si>
-    <t>Instalación del Moterio del 3 Piso</t>
-  </si>
-  <si>
-    <t>Instalación del cielo  del 3 Piso</t>
-  </si>
-  <si>
     <t>A continuación, se detallan los ítems de la segunda Etapa:</t>
   </si>
   <si>
@@ -122,21 +101,12 @@
     <t>Adicional se le reconoció 1725.000 por el lavado de la fachada y pintada.</t>
   </si>
   <si>
-    <t>Adicional se le reconoció 1630.000 por materiales para el lavado de la fachada y pintada.</t>
-  </si>
-  <si>
     <t>Adicional se le reconoció 1100.000 por arreglar el 1 piso.</t>
   </si>
   <si>
     <t>Adicional se le reconoció 800.00 por materiales  para arreglar el 1 piso.</t>
   </si>
   <si>
-    <t>Adicional se le reconoció 1430.000 de la compra de las ventanas.</t>
-  </si>
-  <si>
-    <t>Adicional se le reconoció 1.000.000 por Vaciar piso afuera tapa alcantarilla muro debajo de las escalas jardineras y lagrimales</t>
-  </si>
-  <si>
     <t>Se reconoce un 200.000 por los materiales de electricidad  que llegaron de la milagrosa.</t>
   </si>
   <si>
@@ -206,29 +176,632 @@
     <t>Total de ingresos para gabriel</t>
   </si>
   <si>
-    <t>Dinero aportado para la construccion de la segunda etapa. Ver detalle de los pagos en el anexo 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinero aportado en la ultima etapa ver anexo 3 de los pagos </t>
-  </si>
-  <si>
     <t>Gran total Adeudado incluye intereses TODO TODO:</t>
   </si>
   <si>
-    <t>Dinero entregado a gabriel para gastos personales o ayuda para terminar en la milagrosa, abono en el deposito etc  ver el anexo 1 de los pagos.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apartir de Mayo solo se cobra un apartamento, porque para esa fecha ya habiamos pagado en dinero en efectivo, la mita de la deuda del 1 y 2 piso.  Osea 30 Millones de pesos los cuales fueron entregados a gabriel en pagos en la obra la de la milagrosa.       Intereses de Mayo Junio Julio Agosto Septiembre </t>
   </si>
   <si>
-    <t>Todavia me falta sumarle unas cosisas</t>
+    <t xml:space="preserve">Instalación del Moterio de cada apartmanento  2, 3, 4, 5 piso 61 m2 por piso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalación revoque de cielo en cada apartamento  3 y 4 Piso 61 m2 por piso </t>
+  </si>
+  <si>
+    <t>Lavada de cada apartamento 2, 3 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapar con drywall los bajantes de cada apartamento </t>
+  </si>
+  <si>
+    <t>Electricidad parabolica y cajas general de zona comun.</t>
+  </si>
+  <si>
+    <t>Instalación de lavadero  en cada apartamento  2, 3 4 5 piso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintar de puertas principales de los apartamentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintar y resanar patio </t>
+  </si>
+  <si>
+    <t>Adicional se le reconoció 1.000.000 por Vaciar piso afuera tapa alcantarilla muro debajo de las escalas jardineras y lagrimales y otros</t>
+  </si>
+  <si>
+    <t>Dinero entregado a gabriel para gastos personales o ayuda para terminar en la milagrosa, abono en el deposito etc  ver el Anexo 1 de los pagos.</t>
+  </si>
+  <si>
+    <t>Dinero aportado para la construccion de la segunda etapa. Ver detalle de los pagos en el Anexo 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinero aportado en la ultima para pago de mano de obra etapa ver Anexo 3 de los pagos </t>
+  </si>
+  <si>
+    <t>Pago de Cocina de la milagrosa</t>
+  </si>
+  <si>
+    <t>Factura Poliza</t>
+  </si>
+  <si>
+    <t>Pago Gas de la milagrosa</t>
+  </si>
+  <si>
+    <t>Pago eletricidad milagrosa</t>
+  </si>
+  <si>
+    <t>Nomina de la milagrosa</t>
+  </si>
+  <si>
+    <t>Abono Gabriel  compras en efectivo</t>
+  </si>
+  <si>
+    <t>Nomina Milagrosa</t>
+  </si>
+  <si>
+    <t>Cabinas Milagrosa</t>
+  </si>
+  <si>
+    <t>Ventanas Milagrosa</t>
+  </si>
+  <si>
+    <t>Deposito Milagrosa</t>
+  </si>
+  <si>
+    <t>Pared especial milagrosa</t>
+  </si>
+  <si>
+    <t>Abono Efectivo Gabriel (lo que no le dio a eduar)</t>
+  </si>
+  <si>
+    <t>eletricidad milagrosa</t>
+  </si>
+  <si>
+    <t>cocina milagrosa</t>
+  </si>
+  <si>
+    <t>Efectivo variso ferreteria</t>
+  </si>
+  <si>
+    <t>Pago Nomina milagrosa</t>
+  </si>
+  <si>
+    <t>Factura de Milagrosa</t>
+  </si>
+  <si>
+    <t>Pago a Joel y Juan cocinas</t>
+  </si>
+  <si>
+    <t>Techo canoas milagrosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerrajero y ceramica </t>
+  </si>
+  <si>
+    <t>Apoyo Milqagrosa con nomina</t>
+  </si>
+  <si>
+    <t>Nomina Yoel y otro s</t>
+  </si>
+  <si>
+    <t>Cerrajero  y amaga</t>
+  </si>
+  <si>
+    <t>Cubiertas milagrosa</t>
+  </si>
+  <si>
+    <t>Ayuda milagrosa Nomina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestamo gabriel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variso que le se han dado de apoquito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Grabiel Milagrosa  100 en la cuenta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Grabiel Milagrosa  1750  + 750 </t>
+  </si>
+  <si>
+    <t>Pago a brayan Abono Eletricidad Milagrosa</t>
+  </si>
+  <si>
+    <t>Pago de nomina se debia</t>
+  </si>
+  <si>
+    <t>Prestamo a mi papa</t>
+  </si>
+  <si>
+    <t>Prestamo a mi papa para ir amaga</t>
+  </si>
+  <si>
+    <t>Joel  charles y  otro</t>
+  </si>
+  <si>
+    <t>Pago a trabajadoras del aseo se mando por gana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestamo hoy para cambiar baños + 100 int </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abno Gabriel se le consignaron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel se le consignaron </t>
+  </si>
+  <si>
+    <t>Abono Gabriel se le consignaron  al del gas</t>
+  </si>
+  <si>
+    <t>Abono Gabriel se los di a gabriel 450 por 550 Prestaron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel Gafas Daniela </t>
+  </si>
+  <si>
+    <t>Para eduar</t>
+  </si>
+  <si>
+    <t>Pago de deuda pagadirio Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago a Joel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono a mi mama 500 mil de los 700 </t>
+  </si>
+  <si>
+    <t>Sobro de la cuenta de 1359000</t>
+  </si>
+  <si>
+    <t>Sobro de la cuenta de los 290 mil del 2 de octubre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Deposito consignacion de 2 millones </t>
+  </si>
+  <si>
+    <t>Pago intereses del vibrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo que sobro de los materiales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saco Gabriel para el </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel Gastos personales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel 100 en cta q sobro eduar + 200  efectivo + 940 tarejta -200 yelsid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel de los 3 millones que le di se quedo con 100 </t>
+  </si>
+  <si>
+    <t>Abono grabiel</t>
+  </si>
+  <si>
+    <t>Abono Gabriel lo que le deje en la tarjeta compra de 177 + 520 que saco - 70 lavadero - 130 viaje a jhon de puertas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono lo que sobro de los 2 millones </t>
+  </si>
+  <si>
+    <t>Abono se pago pasaje de la costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se le pago los intereses al aseñor de los 500 mil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayuda pasaje de stiven y daniela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel para luz de la milagrosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel Deposito </t>
+  </si>
+  <si>
+    <t>Abono Gabriel para Carulla nomina</t>
+  </si>
+  <si>
+    <t>Abono Gabriel Efectivo</t>
+  </si>
+  <si>
+    <t>Abono Ferreteria Gabriel Abono a la deuda</t>
+  </si>
+  <si>
+    <t>Abono Ferreteria Gabriel  para el carro en barrio triste retiro 300 +50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gabriel  saco dela tarjeta</t>
+  </si>
+  <si>
+    <t>Gabriel los ladas pago en los ladas</t>
+  </si>
+  <si>
+    <t>Abono Gabriel 400 mil que retiro en castillas para ponchadora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel Efectivo amaga </t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL: </t>
+  </si>
+  <si>
+    <t>Adicional se le reconoció 1630.000 de la compra de las ventanas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicional se le reonoce materiales de gargolas, mezcladores, y otros materiales que se hallan pedido en el deposito </t>
+  </si>
+  <si>
+    <t>Adicional se le reconoció 1430.000 por materiales para el lavado de la fachada y pintada.</t>
+  </si>
+  <si>
+    <t>Abono a los Viejo en el deposito de amaga</t>
+  </si>
+  <si>
+    <t>Abono Ladrillera la Pampa para los dos pisos</t>
+  </si>
+  <si>
+    <t>Compra de cemento en argos 50 bultos iniciales</t>
+  </si>
+  <si>
+    <t>Efectivo el 16 de Abril en la Milagrosa para Nomina</t>
+  </si>
+  <si>
+    <t>Pago de Transporte de adobes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envio a Eduar para pagar descargues y compra de materiales </t>
+  </si>
+  <si>
+    <t>Pago de Nomina</t>
+  </si>
+  <si>
+    <t>Pago descargue de adobes y arena</t>
+  </si>
+  <si>
+    <t>Pago descargue retro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Deposito a lo viejo </t>
+  </si>
+  <si>
+    <t>Se terminaron de pagar los adobes en la ladrillera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono para estribos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago de Nomina </t>
+  </si>
+  <si>
+    <t>Pago descargue</t>
+  </si>
+  <si>
+    <t>Pago de nomina el 21 de Abril en la Milagrosa de Amaga</t>
+  </si>
+  <si>
+    <t>Pago a eduar de descargues</t>
+  </si>
+  <si>
+    <t>Pago EdwinDeposito Viejo</t>
+  </si>
+  <si>
+    <t>Pago de Agua</t>
+  </si>
+  <si>
+    <t>Pago de estribos</t>
+  </si>
+  <si>
+    <t>Prestamo a eduar</t>
+  </si>
+  <si>
+    <t>Pago deposito</t>
+  </si>
+  <si>
+    <t>Pago Factura Amaga</t>
+  </si>
+  <si>
+    <t>Pago de nomina amaga</t>
+  </si>
+  <si>
+    <t>Transporte de adobes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestamo Eduar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago a Edwin Deposito </t>
+  </si>
+  <si>
+    <t>Nomina Amaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago a eduar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">compra de adobes </t>
+  </si>
+  <si>
+    <t>compra de adobes adicionales</t>
+  </si>
+  <si>
+    <t>Materiales deposito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago de techo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura en Amaga </t>
+  </si>
+  <si>
+    <t>Compras amaga Gabriel abono techador y compras</t>
+  </si>
+  <si>
+    <t>Compras amaga Gabriel m-a</t>
+  </si>
+  <si>
+    <t>Canoas y otros Se paso a gabriel</t>
+  </si>
+  <si>
+    <t>Pago Nomina Amaga</t>
+  </si>
+  <si>
+    <t>Compra en deposito</t>
+  </si>
+  <si>
+    <t>Pago Techo</t>
+  </si>
+  <si>
+    <t>Gargolas y Mezcladores y otros materiales</t>
+  </si>
+  <si>
+    <t>Ventanas amaga</t>
+  </si>
+  <si>
+    <t>Compra de materiales en amaga</t>
+  </si>
+  <si>
+    <t>deposito amaga</t>
+  </si>
+  <si>
+    <t>Pintura Amaga y Fachada lavada inlcuye 400 trans</t>
+  </si>
+  <si>
+    <t>Nomina Eduar</t>
+  </si>
+  <si>
+    <t>abono fachada</t>
+  </si>
+  <si>
+    <t>para techo amaga</t>
+  </si>
+  <si>
+    <t>Cosas Amaga Compro Gabriel</t>
+  </si>
+  <si>
+    <t>Ventans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deposito Amaga </t>
+  </si>
+  <si>
+    <t>Pintura amaga algunas cosas milagrosa lavaderos</t>
+  </si>
+  <si>
+    <t>Pasajes amaga y otros papa comida</t>
+  </si>
+  <si>
+    <t>Nomina Abono Eduar</t>
+  </si>
+  <si>
+    <t>Nomina Abono Alpinistas</t>
+  </si>
+  <si>
+    <t>Dia Trabajador Mviendo Arena</t>
+  </si>
+  <si>
+    <t>Para alpinistas</t>
+  </si>
+  <si>
+    <t>Nomina amaga devol de retendio a eduar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se mando para comprar broka lagrimales chazoz catalan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago trabajdores amaga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cemento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se envio para comprar material de plomeria y cemento </t>
+  </si>
+  <si>
+    <t>Pago de viaje para llevar material para amaga</t>
+  </si>
+  <si>
+    <t>Prestamo a Alonso Amga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Brayan Eletrcidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra de eletricidad y pegacor </t>
+  </si>
+  <si>
+    <t>Pago de segundo viaje de escombros y cemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago de nomina Amaga </t>
+  </si>
+  <si>
+    <t>Pago de eletricidad Amaga trabajos</t>
+  </si>
+  <si>
+    <t>Pago a Señores limpiar 2 piso</t>
+  </si>
+  <si>
+    <t>Pago empleados Resane</t>
+  </si>
+  <si>
+    <t>Pago de ayudante moviendo material de l 2 al 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono de lavado de apartamentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago de nomina Abono a eduar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono a Lavador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago brayan de eletricidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago de factura en deposito de agua y otros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago a deposito  Factura de agua y otro </t>
+  </si>
+  <si>
+    <t>Varios</t>
+  </si>
+  <si>
+    <t>Para nomina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago brayan y eduar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para lavador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago Plomero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavadores para terminar escalas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se los dia gabriel </t>
+  </si>
+  <si>
+    <t>Prestamo empleado contratista viejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago de Nomina Se pago de lso 2 millones que le preste </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago de Arreglo de buitrones Drywall de baños </t>
+  </si>
+  <si>
+    <t>Pago de Arreglo de buitrones Drywall de baños 100 que se le descontaron a alvaro que era de jhon abono deuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago de nomina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">retiro de 300 de la tarjeta para brayan </t>
+  </si>
+  <si>
+    <t>Pago a eduar trasnferencia</t>
+  </si>
+  <si>
+    <t>Retiro Abono 600+400 para prestar alex alvaro revocadores otros trabajadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tranferencia pago a alvaro </t>
+  </si>
+  <si>
+    <t>tranferencia a alex revoador</t>
+  </si>
+  <si>
+    <t>Efectivo Retiro parapago de  nomina de otros trananjadores</t>
+  </si>
+  <si>
+    <t>Dinero entregado a gabriel para gastos personales o ayuda para terminar en la milagrosa, abono en el deposito etc</t>
+  </si>
+  <si>
+    <t>Dinero aportado en la ultima para pago de mano de obra etapa</t>
+  </si>
+  <si>
+    <t>Dinero aportado para la construccion de la segunda etapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel Efectivo amaga Retiro en efectivo </t>
+  </si>
+  <si>
+    <t>tranferencia alvaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retiro para pagar nomina </t>
+  </si>
+  <si>
+    <t>Enchape, Lavamanos, baños e incrustaciones de cada baño.  560.000 por cada baño OJO este valor incluía el revoque, del baño. 2 4 y 5</t>
+  </si>
+  <si>
+    <t>Instalación de drywall de los baños de cada apartamento  - 150.000 por baño 2, 3, 4 ,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintura y resanes de zona comun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se reconoce un 400.000 por los materiales de eletricidad ques e pidieron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se le reconoce lavado de cuchillas y fajas del 5 piso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">instalacion de lavaplatos incluye revoques </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalacion de puertas interiores de los baños </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desagues del 5 piso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remeindo del primer piso en tableta revoque, resanes y registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instlacion de escaleras tapa del tanque picaportes arreglar puerta del 2 piso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medidores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago de facturas que el pago </t>
+  </si>
+  <si>
+    <t>Compra en deposito gasolina y gas</t>
+  </si>
+  <si>
+    <t>Abono Gabriel Efectivo amaga que retiro dela tarjeta 600 + 1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago a jhon prestamo de los 6 milones pal carro </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,20 +833,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +900,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -388,11 +1014,200 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -422,24 +1237,6 @@
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,16 +1253,103 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -744,47 +1628,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>10</v>
+      <c r="A2" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="19">
+        <v>36</v>
+      </c>
+      <c r="B3" s="13">
         <v>56492000</v>
       </c>
       <c r="C3" s="5">
@@ -797,9 +1681,9 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="20">
+        <v>37</v>
+      </c>
+      <c r="B4" s="14">
         <v>2000000</v>
       </c>
       <c r="C4" s="5">
@@ -812,9 +1696,9 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="20">
+        <v>38</v>
+      </c>
+      <c r="B5" s="14">
         <v>744000</v>
       </c>
       <c r="C5" s="5">
@@ -827,9 +1711,9 @@
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="20">
+        <v>39</v>
+      </c>
+      <c r="B6" s="14">
         <v>2032000</v>
       </c>
       <c r="C6" s="5">
@@ -840,11 +1724,11 @@
         <v>2032000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="20">
+        <v>40</v>
+      </c>
+      <c r="B7" s="14">
         <v>900000</v>
       </c>
       <c r="C7" s="5">
@@ -862,41 +1746,41 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="12">
         <f>SUM(D3:D8)</f>
         <v>62168000</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B14" s="10">
         <v>56492000</v>
@@ -911,7 +1795,7 @@
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5">
         <v>3000000</v>
@@ -920,13 +1804,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" ref="D15:D30" si="1">+C15*B15</f>
+        <f t="shared" ref="D15:D32" si="1">+C15*B15</f>
         <v>3000000</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5">
         <v>1000000</v>
@@ -941,7 +1825,7 @@
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5">
         <v>1800000</v>
@@ -956,7 +1840,7 @@
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5">
         <v>1000000</v>
@@ -971,7 +1855,7 @@
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5">
         <v>210000</v>
@@ -980,720 +1864,3118 @@
         <v>1</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D19" si="2">+C19*B19</f>
         <v>210000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="B20" s="5">
-        <v>1725000</v>
+        <v>600000</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="1"/>
-        <v>1725000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5">
-        <v>1630000</v>
+        <v>1725000</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="1"/>
-        <v>1630000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1725000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="B22" s="5">
-        <v>1100000</v>
+        <v>430000</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="11">
+        <f>+C22*B22</f>
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1100000</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
         <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="5">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5">
         <v>800000</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <f t="shared" si="1"/>
         <v>800000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="5">
-        <v>1430000</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="11">
-        <f t="shared" si="1"/>
-        <v>1430000</v>
-      </c>
-    </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5">
-        <v>1000000</v>
+        <v>1630000</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="1"/>
-        <v>1000000</v>
+        <v>1630000</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B26" s="5">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="5">
         <v>500000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="5">
-        <v>200000</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
       </c>
       <c r="D27" s="11">
         <f t="shared" si="1"/>
-        <v>200000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>850000</v>
+        <v>200000</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="11">
         <f t="shared" si="1"/>
-        <v>850000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B29" s="5">
-        <v>400000</v>
+        <v>850000</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
       </c>
       <c r="D29" s="11">
         <f t="shared" si="1"/>
-        <v>400000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B30" s="5">
-        <v>600000</v>
+        <v>400000</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
       </c>
       <c r="D30" s="11">
         <f t="shared" si="1"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5">
         <v>600000</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="12">
-        <f>SUM(D14:D31)</f>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" ref="D31" si="3">+C31*B31</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="5">
+        <v>400000</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="1"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="12">
+        <f>SUM(D14:D33)</f>
         <v>73737000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="3">
-        <v>800000</v>
-      </c>
-      <c r="C37" s="3">
-        <v>3</v>
-      </c>
-      <c r="D37" s="3">
-        <f>+B37*C37</f>
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="C38" s="3">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" ref="D38:D59" si="2">+B38*C38</f>
-        <v>4000000</v>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B39" s="3">
-        <v>300000</v>
+        <v>800000</v>
       </c>
       <c r="C39" s="3">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3">
+        <f>+B39*C39</f>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="C40" s="3">
         <v>4</v>
       </c>
-      <c r="D39" s="3">
-        <f t="shared" si="2"/>
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="3">
-        <v>560000</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
       <c r="D40" s="3">
-        <f t="shared" si="2"/>
-        <v>1120000</v>
+        <f t="shared" ref="D40" si="4">+B40*C40</f>
+        <v>4000000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B41" s="3">
-        <v>60000</v>
+        <v>400000</v>
       </c>
       <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" ref="D41:D70" si="5">+B41*C41</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="3">
-        <f>+B41*C41</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B42" s="3">
-        <v>8000</v>
+        <v>300000</v>
       </c>
       <c r="C42" s="3">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" ref="D42:D48" si="3">+B42*C42</f>
-        <v>488000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="B43" s="3">
-        <v>12000</v>
+        <v>560000</v>
       </c>
       <c r="C43" s="3">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D43" s="3">
-        <f>+B43*C43</f>
-        <v>732000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>3360000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="C44" s="3">
-        <v>82</v>
+        <f>61*4</f>
+        <v>244</v>
       </c>
       <c r="D44" s="3">
-        <f>+B44*C44</f>
-        <v>246000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D44" si="6">+B44*C44</f>
+        <v>2196000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="B45" s="3">
         <v>150000</v>
       </c>
       <c r="C45" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D45" s="3">
         <f>+B45*C45</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B46" s="3">
-        <v>400000</v>
+        <v>10000</v>
       </c>
       <c r="C46" s="3">
-        <v>1</v>
+        <f>61*2</f>
+        <v>122</v>
       </c>
       <c r="D46" s="3">
-        <f>+B46*C46</f>
-        <v>400000</v>
+        <f t="shared" ref="D46" si="7">+B46*C46</f>
+        <v>1220000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B47" s="3">
         <v>60000</v>
       </c>
       <c r="C47" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47" s="3">
         <f>+B47*C47</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3">
         <v>60000</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="3">
-        <v>8000</v>
-      </c>
       <c r="C48" s="3">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="3"/>
-        <v>488000</v>
+        <f>+B48*C48</f>
+        <v>240000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B49" s="3">
-        <v>10000</v>
+        <v>520000</v>
       </c>
       <c r="C49" s="3">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" ref="D49" si="4">+B49*C49</f>
-        <v>610000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <f>+B49*C49</f>
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B50" s="3">
         <v>60000</v>
       </c>
       <c r="C50" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="2"/>
-        <v>240000</v>
+        <f>+B50*C50</f>
+        <v>300000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="3">
-        <v>20000</v>
-      </c>
-      <c r="C51" s="3">
-        <v>12</v>
+      <c r="A51" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="5">
+        <v>260000</v>
+      </c>
+      <c r="C51" s="5">
+        <v>3</v>
       </c>
       <c r="D51" s="3">
         <f>+B51*C51</f>
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="5">
+        <v>390000</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" ref="D52" si="8">+B52*C52</f>
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B53" s="5">
+        <v>520000</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" ref="D53" si="9">+B53*C53</f>
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3">
+        <v>400000</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3">
+        <f>+B54*C54</f>
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="3">
+        <v>60000</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3">
+        <f>+B55*C55</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3">
+        <v>12000</v>
+      </c>
+      <c r="C56" s="3">
+        <v>61</v>
+      </c>
+      <c r="D56" s="3">
+        <f>+B56*C56</f>
+        <v>732000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C57" s="3">
+        <v>82</v>
+      </c>
+      <c r="D57" s="3">
+        <f>+B57*C57</f>
+        <v>246000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="C58" s="3">
+        <v>12</v>
+      </c>
+      <c r="D58" s="3">
+        <f>+B58*C58</f>
         <v>240000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="3">
         <v>1500000</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C59" s="3">
         <v>1</v>
       </c>
-      <c r="D52" s="3">
-        <f t="shared" si="2"/>
+      <c r="D59" s="3">
+        <f t="shared" si="5"/>
         <v>1500000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="3">
         <f>600000+180000</f>
         <v>780000</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C60" s="3">
         <v>1</v>
       </c>
-      <c r="D53" s="3">
-        <f t="shared" si="2"/>
+      <c r="D60" s="3">
+        <f t="shared" si="5"/>
         <v>780000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="5">
-        <v>400000</v>
-      </c>
-      <c r="C54" s="5">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="5">
+        <v>500000</v>
+      </c>
+      <c r="C61" s="5">
         <v>4</v>
       </c>
-      <c r="D54" s="3">
-        <f t="shared" ref="D54:D57" si="5">+B54*C54</f>
-        <v>1600000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="5">
-        <v>260000</v>
-      </c>
-      <c r="C55" s="5">
+      <c r="D61" s="3">
+        <f t="shared" ref="D61:D68" si="10">+B61*C61</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="5">
+        <v>350000</v>
+      </c>
+      <c r="C62" s="5">
         <v>4</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D62" s="3">
+        <f t="shared" si="10"/>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="10"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="5">
+        <v>150000</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="10"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" s="5">
+        <v>100000</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="10"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B66" s="5">
+        <v>35000</v>
+      </c>
+      <c r="C66" s="5">
+        <v>6</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="10"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" s="5">
+        <v>30000</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" si="10"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" s="5">
+        <v>200000</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" si="10"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B69" s="5">
+        <v>160000</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
         <f t="shared" si="5"/>
-        <v>1040000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="5">
-        <v>390000</v>
-      </c>
-      <c r="C56" s="5">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="55"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="12">
+        <f>SUM(D39:D70)</f>
+        <v>29564000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="17">
+        <f t="shared" ref="D75:D76" si="11">+B75*C75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="17">
+        <v>300000</v>
+      </c>
+      <c r="C76" s="16">
+        <v>6</v>
+      </c>
+      <c r="D76" s="17">
+        <f t="shared" si="11"/>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="17">
+        <v>2160000</v>
+      </c>
+      <c r="C77" s="16">
         <v>1</v>
       </c>
-      <c r="D56" s="3">
-        <f t="shared" ref="D56" si="6">+B56*C56</f>
-        <v>390000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="5">
-        <v>300000</v>
-      </c>
-      <c r="C57" s="5">
-        <v>4</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" si="5"/>
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="C58" s="5">
+      <c r="D77" s="17">
+        <f t="shared" ref="D77:D79" si="12">+B77*C77</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="14">
+        <v>6000000</v>
+      </c>
+      <c r="C78" s="5">
         <v>1</v>
       </c>
-      <c r="D58" s="3">
-        <f t="shared" si="2"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="8">
-        <f t="shared" si="2"/>
+      <c r="D78" s="17">
+        <f t="shared" si="12"/>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="12">
-        <f>SUM(D37:D59)</f>
-        <v>20154000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="23">
-        <f t="shared" ref="D64:D65" si="7">+B64*C64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="23">
-        <v>300000</v>
-      </c>
-      <c r="C65" s="22">
-        <v>6</v>
-      </c>
-      <c r="D65" s="23">
-        <f t="shared" si="7"/>
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="23">
-        <v>2160000</v>
-      </c>
-      <c r="C66" s="22">
-        <v>1</v>
-      </c>
-      <c r="D66" s="23">
-        <f t="shared" ref="D66:D68" si="8">+B66*C66</f>
-        <v>2160000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="20">
-        <v>6000000</v>
-      </c>
-      <c r="C67" s="5">
-        <v>1</v>
-      </c>
-      <c r="D67" s="23">
-        <f t="shared" si="8"/>
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="12">
-        <f>SUM(D64:D68)</f>
+      <c r="B80" s="55"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="12">
+        <f>SUM(D75:D79)</f>
         <v>9960000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="26">
-        <f>+$D$69+$D$60+$D$32+$D$9</f>
-        <v>166019000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B74" s="28">
-        <v>67065473</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
+    <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="20">
+        <f>+$D$80+$D$71+$D$34+$D$9</f>
+        <v>175429000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B75" s="28">
+      <c r="B85" s="21">
+        <f>+Anexo1!C87</f>
+        <v>77538198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="21">
         <v>58838400</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="28">
-        <v>13960000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
-    </row>
-    <row r="78" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="29" t="s">
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B78" s="30">
-        <f>+B72-B74-B75-B76</f>
-        <v>26155127</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>65</v>
+      <c r="B87" s="21">
+        <v>19505000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B88" s="21">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" s="21">
+        <v>577000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="23">
+        <f>+B83-B85-B86-B87-B88+B89</f>
+        <v>19244402</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A60:C60"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A71:C71"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A85" location="Anexo1!A1" display="Dinero entregado a gabriel para gastos personales o ayuda para terminar en la milagrosa, abono en el deposito etc  ver el Anexo 1 de los pagos."/>
+    <hyperlink ref="A86" location="Anexo2!A1" display="Dinero aportado para la construccion de la segunda etapa. Ver detalle de los pagos en el Anexo 2"/>
+    <hyperlink ref="A89" location="Anexo3!A1" display="Dinero aportado en la ultima para pago de mano de obra etapa ver Anexo 3 de los pagos "/>
+    <hyperlink ref="A88" location="Anexo3!A1" display="Dinero aportado en la ultima para pago de mano de obra etapa ver Anexo 3 de los pagos "/>
+    <hyperlink ref="A87" location="Anexo3!A1" display="Dinero aportado en la ultima para pago de mano de obra etapa ver Anexo 3 de los pagos "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>43199</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="31">
+        <v>2526850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="31">
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="31">
+        <v>784000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="31">
+        <v>546000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>43232</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="31">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="31">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1130000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="31">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="31">
+        <v>796000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="31">
+        <v>769000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="31">
+        <v>1159000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="31">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="31">
+        <v>1349623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="31">
+        <v>5264000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="31">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>43246</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="31">
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>43253</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="31">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>43253</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="31">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>43248</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="31">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>43248</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="31">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>43248</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="31">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>43259</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="31">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>43260</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="31">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>43260</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="31">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>43265</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="31">
+        <v>466000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>43275</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="31">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>43276</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="31">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>43276</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="31">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>43288</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="31">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <v>43288</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="31">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>43295</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="31">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <v>43295</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="31">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <v>43295</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="31">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>43300</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="31">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>43300</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="31">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>43300</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="31">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <v>43300</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="31">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>43300</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="31">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>43300</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="31">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>43333</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="31">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>43333</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="31">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>43349</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="31">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
+        <v>43357</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="31">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
+        <v>43357</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="31">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
+        <v>43357</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="31">
+        <v>250000</v>
+      </c>
+      <c r="D48">
+        <v>46415000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="31"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <v>43357</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="31">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="30">
+        <v>43373</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="31">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="30">
+        <v>43373</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="31">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="30">
+        <v>43373</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="31">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="30">
+        <v>43374</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="31">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="30">
+        <v>43375</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="31">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="30">
+        <v>43376</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="31">
+        <v>577000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
+        <v>43376</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="31">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
+        <v>43376</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="31">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
+        <v>43379</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="31">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="30">
+        <v>43379</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="31">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="30">
+        <v>43386</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="31">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="30">
+        <v>43393</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="31">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
+        <v>43393</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="31">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="30">
+        <v>43400</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="31">
+        <v>497000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
+        <v>43400</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="31">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="30">
+        <v>43400</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="31">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="30">
+        <v>43400</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="31">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="30">
+        <v>43400</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="31">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="30">
+        <v>43420</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="31">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="30">
+        <v>43420</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="31">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="30">
+        <v>43420</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="31">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="30">
+        <v>43420</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="31">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="30">
+        <v>43428</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="31">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="30">
+        <v>43433</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="31">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="30">
+        <v>43435</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="31">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="30">
+        <v>43440</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="31">
+        <v>248000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="30">
+        <v>43441</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="31">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="30">
+        <v>43444</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" s="31">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="32">
+        <v>43445</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" s="33">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="32">
+        <v>43445</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80" s="41">
+        <v>24725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="32">
+        <v>43445</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" s="41">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="32">
+        <v>43451</v>
+      </c>
+      <c r="B82" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" s="33">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="32">
+        <v>43451</v>
+      </c>
+      <c r="B83" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C83" s="33">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="32">
+        <v>43451</v>
+      </c>
+      <c r="B84" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="33">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B87" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="35">
+        <f>SUM(C3:C86)</f>
+        <v>77538198</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="43" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>43196</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="37">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>43196</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="37">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>43196</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="37">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>43204</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="37">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>43200</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="37">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="37">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="37">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="37">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="37">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="37">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="37">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="37">
+        <v>2308000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="37">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="37">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="37">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="37">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="37">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="37">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="37">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="37">
+        <v>1067000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="37">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="37">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="37">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="37">
+        <v>931400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="37">
+        <v>302000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="37">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="37">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="37">
+        <v>1064000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>43203</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <v>43232</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="37">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="37">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <v>43239</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="37">
+        <v>3967000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="37">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="37">
+        <v>714000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="37">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>43237</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="37">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <v>43243</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="37">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>43248</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="37">
+        <v>2360000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>43253</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="37">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>43253</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="37">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>43253</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="37">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>43253</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="37">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
+        <v>43253</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="37">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
+        <v>43253</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="37">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
+        <v>43253</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="37">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="30">
+        <v>43248</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="37">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <v>43248</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="37">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="30">
+        <v>43248</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="37">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="30">
+        <v>43248</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="37">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="30">
+        <v>43259</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="52">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="30">
+        <v>43260</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="37">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="30">
+        <v>43260</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="52">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="30">
+        <v>43260</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="37">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
+        <v>43260</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="37">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
+        <v>43260</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="37">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
+        <v>43265</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="37">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="30">
+        <v>43265</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="37">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="30">
+        <v>43265</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="37">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="30">
+        <v>43267</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="37">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
+        <v>43267</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="37">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="30">
+        <v>43267</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="37">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
+        <v>43267</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="37">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="30">
+        <v>43274</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="37">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="30">
+        <v>43281</v>
+      </c>
+      <c r="B67" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="37">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="30">
+        <v>43288</v>
+      </c>
+      <c r="B68" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="37">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="30">
+        <v>43288</v>
+      </c>
+      <c r="B69" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="37">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="30">
+        <v>43288</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="30">
+        <v>43295</v>
+      </c>
+      <c r="B71" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="37">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="30">
+        <v>43300</v>
+      </c>
+      <c r="B72" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="30">
+        <v>43300</v>
+      </c>
+      <c r="B73" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="30">
+        <v>43300</v>
+      </c>
+      <c r="B74" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="37">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="30">
+        <v>43300</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="37">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="30">
+        <v>43300</v>
+      </c>
+      <c r="B76" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="37">
+        <v>830000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="30">
+        <v>43300</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="37">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="32">
+        <v>43300</v>
+      </c>
+      <c r="B78" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="38">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B80" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="35">
+        <f>SUM(C3:C79)</f>
+        <v>58838400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="43" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
+        <v>43376</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="41">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <v>43376</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="41">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>43376</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="41">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>43386</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="41">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>43386</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="41">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>43386</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="41">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>43393</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="41">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>43393</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="41">
+        <v>403000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>43393</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="41">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>43393</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="41">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>43393</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="41">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>43393</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="41">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>43393</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="41">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>43393</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="41">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>43393</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="41">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>43400</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="41">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>43400</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="41">
+        <v>1872000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>43400</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="41">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>43400</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="41">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <v>43420</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="41">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>43435</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="41">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>43435</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="41">
+        <v>1068000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>43440</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="41">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>43442</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="41">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>43442</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="41">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>43442</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="41">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <v>43449</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="41">
+        <v>2000000</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="42"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
+        <v>43449</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="41">
+        <v>1000000</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="42"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
+      <c r="B32" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="35">
+        <f>SUM(C3:C31)</f>
+        <v>22808000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/informe de cuentas gabriel.xlsx
+++ b/informe de cuentas gabriel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="263">
   <si>
     <t>Plomería de Cada apartamento del 3,4 y 5 El segundo piso ya estaba pago. 800.000 Por cada uno.</t>
   </si>
@@ -446,9 +446,6 @@
     <t xml:space="preserve">Adicional se le reonoce materiales de gargolas, mezcladores, y otros materiales que se hallan pedido en el deposito </t>
   </si>
   <si>
-    <t>Adicional se le reconoció 1430.000 por materiales para el lavado de la fachada y pintada.</t>
-  </si>
-  <si>
     <t>Abono a los Viejo en el deposito de amaga</t>
   </si>
   <si>
@@ -791,10 +788,34 @@
     <t>Compra en deposito gasolina y gas</t>
   </si>
   <si>
-    <t>Abono Gabriel Efectivo amaga que retiro dela tarjeta 600 + 1400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pago a jhon prestamo de los 6 milones pal carro </t>
+    <t>Abono Gabriel Efectivo amaga que retiro dela tarjeta 1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel Efectivo amaga que retiro dela tarjeta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel Efectivo amaga que retiro dela tarjeta Ditaires </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel retiro por pac </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel traslado </t>
+  </si>
+  <si>
+    <t>Abono gabriel retiro en bello</t>
+  </si>
+  <si>
+    <t>Abono gabriel retiro en amaga sabado de nomina  retiro de 400 + 600</t>
+  </si>
+  <si>
+    <t>Abono Gabriel retiro transferecnia x 850000</t>
+  </si>
+  <si>
+    <t>Abono en el deposito hoy 22-12</t>
+  </si>
+  <si>
+    <t>Adicional se le reconoció 430.000 por materiales para el lavado de la fachada y pintada.</t>
   </si>
 </sst>
 </file>
@@ -1630,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,7 +1921,7 @@
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="B22" s="5">
         <v>430000</v>
@@ -2050,7 +2071,7 @@
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B32" s="5">
         <v>400000</v>
@@ -2164,7 +2185,7 @@
     </row>
     <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B43" s="3">
         <v>560000</v>
@@ -2195,7 +2216,7 @@
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45" s="3">
         <v>150000</v>
@@ -2316,7 +2337,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B53" s="5">
         <v>520000</v>
@@ -2482,7 +2503,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B64" s="5">
         <v>150000</v>
@@ -2497,7 +2518,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B65" s="5">
         <v>100000</v>
@@ -2512,7 +2533,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B66" s="5">
         <v>35000</v>
@@ -2527,7 +2548,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B67" s="5">
         <v>30000</v>
@@ -2542,7 +2563,7 @@
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B68" s="5">
         <v>200000</v>
@@ -2557,7 +2578,7 @@
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B69" s="5">
         <v>160000</v>
@@ -2700,8 +2721,8 @@
         <v>60</v>
       </c>
       <c r="B85" s="21">
-        <f>+Anexo1!C87</f>
-        <v>77538198</v>
+        <f>+Anexo1!C94</f>
+        <v>75188198</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2722,7 +2743,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B88" s="21">
         <v>880000</v>
@@ -2730,7 +2751,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B89" s="21">
         <v>577000</v>
@@ -2746,7 +2767,7 @@
       </c>
       <c r="B91" s="23">
         <f>+B83-B85-B86-B87-B88+B89</f>
-        <v>19244402</v>
+        <v>21594402</v>
       </c>
     </row>
   </sheetData>
@@ -2774,10 +2795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80:C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,7 +2810,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="61"/>
@@ -3484,7 +3505,7 @@
         <v>497000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>43400</v>
       </c>
@@ -3495,7 +3516,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>43400</v>
       </c>
@@ -3506,7 +3527,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>43400</v>
       </c>
@@ -3517,7 +3538,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>43400</v>
       </c>
@@ -3528,7 +3549,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>43420</v>
       </c>
@@ -3539,7 +3560,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>43420</v>
       </c>
@@ -3550,7 +3571,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>43420</v>
       </c>
@@ -3561,7 +3582,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
         <v>43420</v>
       </c>
@@ -3572,7 +3593,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>43428</v>
       </c>
@@ -3583,7 +3604,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>43433</v>
       </c>
@@ -3594,7 +3615,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>43435</v>
       </c>
@@ -3605,7 +3626,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>43440</v>
       </c>
@@ -3616,7 +3637,7 @@
         <v>248000</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>43441</v>
       </c>
@@ -3627,7 +3648,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="30">
         <v>43444</v>
       </c>
@@ -3638,79 +3659,229 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="32">
         <v>43445</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C79" s="33">
         <v>200000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="32">
-        <v>43445</v>
-      </c>
-      <c r="B80" s="40" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="39">
+        <v>43450</v>
+      </c>
+      <c r="B80" s="51" t="s">
         <v>253</v>
       </c>
       <c r="C80" s="41">
+        <v>1400000</v>
+      </c>
+      <c r="E80" s="42"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="42"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="39">
+        <v>43451</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="41">
         <v>24725</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32">
-        <v>43445</v>
-      </c>
-      <c r="B81" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="C81" s="41">
+      <c r="E81" s="42"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="42"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="39">
+        <v>43451</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" s="41">
         <v>50000</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="32">
-        <v>43451</v>
-      </c>
-      <c r="B82" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" s="33">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="32">
+      <c r="E82" s="42"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="42"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="39">
         <v>43451</v>
       </c>
       <c r="B83" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C83" s="33">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="32">
-        <v>43451</v>
+      <c r="C83" s="41">
+        <v>600000</v>
+      </c>
+      <c r="E83" s="42"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="42"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="39">
+        <v>43452</v>
       </c>
       <c r="B84" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="C84" s="33">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B87" s="34" t="s">
+      <c r="C84" s="41">
+        <v>550000</v>
+      </c>
+      <c r="E84" s="42"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="42"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="39">
+        <v>43454</v>
+      </c>
+      <c r="B85" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="41">
+        <v>100000</v>
+      </c>
+      <c r="E85" s="42"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="42"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="39">
+        <v>43454</v>
+      </c>
+      <c r="B86" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C86" s="41">
+        <v>500000</v>
+      </c>
+      <c r="E86" s="42"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="42"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="39">
+        <v>43455</v>
+      </c>
+      <c r="B87" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="41">
+        <v>200000</v>
+      </c>
+      <c r="E87" s="42"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="42"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="39">
+        <v>43456</v>
+      </c>
+      <c r="B88" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" s="41">
+        <v>1000000</v>
+      </c>
+      <c r="E88" s="42"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="50"/>
+      <c r="K88" s="42"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="39">
+        <v>43456</v>
+      </c>
+      <c r="B89" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C89" s="41">
+        <v>850000</v>
+      </c>
+      <c r="E89" s="42"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="42"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="39">
+        <v>43456</v>
+      </c>
+      <c r="B90" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C90" s="41">
+        <v>1000000</v>
+      </c>
+      <c r="E90" s="42"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="42"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="39">
+        <v>43456</v>
+      </c>
+      <c r="B91" s="51"/>
+      <c r="C91" s="33"/>
+    </row>
+    <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B94" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C87" s="35">
-        <f>SUM(C3:C86)</f>
-        <v>77538198</v>
+      <c r="C94" s="35">
+        <f>SUM(C3:C93)</f>
+        <v>75188198</v>
       </c>
     </row>
   </sheetData>
@@ -3726,7 +3897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -3739,7 +3910,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="64"/>
@@ -3760,7 +3931,7 @@
         <v>43196</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="37">
         <v>4000000</v>
@@ -3771,7 +3942,7 @@
         <v>43196</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="37">
         <v>2000000</v>
@@ -3782,7 +3953,7 @@
         <v>43196</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="37">
         <v>900000</v>
@@ -3793,7 +3964,7 @@
         <v>43204</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="37">
         <v>1000000</v>
@@ -3804,7 +3975,7 @@
         <v>43200</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="37">
         <v>210000</v>
@@ -3815,7 +3986,7 @@
         <v>43203</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="37">
         <v>150000</v>
@@ -3826,7 +3997,7 @@
         <v>43203</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="37">
         <v>1000000</v>
@@ -3837,7 +4008,7 @@
         <v>43203</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="37">
         <v>180000</v>
@@ -3848,7 +4019,7 @@
         <v>43203</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="37">
         <v>170000</v>
@@ -3859,7 +4030,7 @@
         <v>43203</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="37">
         <v>60000</v>
@@ -3870,7 +4041,7 @@
         <v>43203</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="37">
         <v>1000000</v>
@@ -3881,7 +4052,7 @@
         <v>43203</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="37">
         <v>2308000</v>
@@ -3892,7 +4063,7 @@
         <v>43203</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="37">
         <v>100000</v>
@@ -3904,7 +4075,7 @@
         <v>43203</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" s="37">
         <v>180000</v>
@@ -3915,7 +4086,7 @@
         <v>43203</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="37">
         <v>180000</v>
@@ -3926,7 +4097,7 @@
         <v>43203</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="37">
         <v>240000</v>
@@ -3937,7 +4108,7 @@
         <v>43203</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="37">
         <v>40000</v>
@@ -3948,7 +4119,7 @@
         <v>43203</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="37">
         <v>2000000</v>
@@ -3959,7 +4130,7 @@
         <v>43203</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="37">
         <v>230000</v>
@@ -3970,7 +4141,7 @@
         <v>43203</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="37">
         <v>1067000</v>
@@ -3981,7 +4152,7 @@
         <v>43203</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="37">
         <v>130000</v>
@@ -3992,7 +4163,7 @@
         <v>43203</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="37">
         <v>500000</v>
@@ -4003,7 +4174,7 @@
         <v>43203</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="37">
         <v>50000</v>
@@ -4014,7 +4185,7 @@
         <v>43203</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="37">
         <v>100000</v>
@@ -4025,7 +4196,7 @@
         <v>43203</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="37">
         <v>931400</v>
@@ -4036,7 +4207,7 @@
         <v>43203</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="37">
         <v>302000</v>
@@ -4047,7 +4218,7 @@
         <v>43203</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="37">
         <v>4000000</v>
@@ -4058,7 +4229,7 @@
         <v>43203</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="37">
         <v>180000</v>
@@ -4069,7 +4240,7 @@
         <v>43203</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" s="37">
         <v>1064000</v>
@@ -4080,7 +4251,7 @@
         <v>43203</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="37">
         <v>50000</v>
@@ -4091,7 +4262,7 @@
         <v>43232</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" s="37">
         <v>2000000</v>
@@ -4102,7 +4273,7 @@
         <v>43237</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" s="37">
         <v>1500000</v>
@@ -4113,7 +4284,7 @@
         <v>43239</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C35" s="37">
         <v>3967000</v>
@@ -4124,7 +4295,7 @@
         <v>43237</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" s="37">
         <v>400000</v>
@@ -4135,7 +4306,7 @@
         <v>43237</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="37">
         <v>714000</v>
@@ -4146,7 +4317,7 @@
         <v>43237</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="37">
         <v>425000</v>
@@ -4157,7 +4328,7 @@
         <v>43237</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" s="37">
         <v>180000</v>
@@ -4168,7 +4339,7 @@
         <v>43243</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" s="37">
         <v>1000000</v>
@@ -4179,7 +4350,7 @@
         <v>43248</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" s="37">
         <v>2360000</v>
@@ -4190,7 +4361,7 @@
         <v>43253</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" s="37">
         <v>300000</v>
@@ -4201,7 +4372,7 @@
         <v>43253</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43" s="37">
         <v>600000</v>
@@ -4212,7 +4383,7 @@
         <v>43253</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" s="37">
         <v>180000</v>
@@ -4223,7 +4394,7 @@
         <v>43253</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" s="37">
         <v>1000000</v>
@@ -4234,7 +4405,7 @@
         <v>43253</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" s="37">
         <v>2800000</v>
@@ -4245,7 +4416,7 @@
         <v>43253</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" s="37">
         <v>500000</v>
@@ -4256,7 +4427,7 @@
         <v>43253</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C48" s="37">
         <v>1400000</v>
@@ -4267,7 +4438,7 @@
         <v>43248</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C49" s="37">
         <v>800000</v>
@@ -4278,7 +4449,7 @@
         <v>43248</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50" s="37">
         <v>230000</v>
@@ -4289,7 +4460,7 @@
         <v>43248</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C51" s="37">
         <v>200000</v>
@@ -4300,7 +4471,7 @@
         <v>43248</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C52" s="37">
         <v>2000000</v>
@@ -4311,7 +4482,7 @@
         <v>43259</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C53" s="52">
         <v>1400000</v>
@@ -4322,7 +4493,7 @@
         <v>43260</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C54" s="37">
         <v>1100000</v>
@@ -4333,7 +4504,7 @@
         <v>43260</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C55" s="52">
         <v>600000</v>
@@ -4344,7 +4515,7 @@
         <v>43260</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C56" s="37">
         <v>400000</v>
@@ -4355,7 +4526,7 @@
         <v>43260</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C57" s="37">
         <v>200000</v>
@@ -4366,7 +4537,7 @@
         <v>43260</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C58" s="37">
         <v>1400000</v>
@@ -4377,7 +4548,7 @@
         <v>43265</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C59" s="37">
         <v>1000000</v>
@@ -4388,7 +4559,7 @@
         <v>43265</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" s="37">
         <v>700000</v>
@@ -4399,7 +4570,7 @@
         <v>43265</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C61" s="37">
         <v>200000</v>
@@ -4410,7 +4581,7 @@
         <v>43267</v>
       </c>
       <c r="B62" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C62" s="37">
         <v>400000</v>
@@ -4421,7 +4592,7 @@
         <v>43267</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C63" s="37">
         <v>500000</v>
@@ -4432,7 +4603,7 @@
         <v>43267</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" s="37">
         <v>30000</v>
@@ -4443,7 +4614,7 @@
         <v>43267</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" s="37">
         <v>150000</v>
@@ -4454,7 +4625,7 @@
         <v>43274</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C66" s="37">
         <v>1800000</v>
@@ -4465,7 +4636,7 @@
         <v>43281</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67" s="37">
         <v>80000</v>
@@ -4476,7 +4647,7 @@
         <v>43288</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" s="37">
         <v>150000</v>
@@ -4487,7 +4658,7 @@
         <v>43288</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" s="37">
         <v>100000</v>
@@ -4498,7 +4669,7 @@
         <v>43288</v>
       </c>
       <c r="B70" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C70" s="37">
         <v>50000</v>
@@ -4509,7 +4680,7 @@
         <v>43295</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" s="37">
         <v>100000</v>
@@ -4520,7 +4691,7 @@
         <v>43300</v>
       </c>
       <c r="B72" s="46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C72" s="37">
         <v>50000</v>
@@ -4531,7 +4702,7 @@
         <v>43300</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73" s="37">
         <v>50000</v>
@@ -4542,7 +4713,7 @@
         <v>43300</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C74" s="37">
         <v>160000</v>
@@ -4553,7 +4724,7 @@
         <v>43300</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C75" s="37">
         <v>250000</v>
@@ -4564,7 +4735,7 @@
         <v>43300</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C76" s="37">
         <v>830000</v>
@@ -4575,7 +4746,7 @@
         <v>43300</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C77" s="37">
         <v>200000</v>
@@ -4586,7 +4757,7 @@
         <v>43300</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C78" s="38">
         <v>60000</v>
@@ -4614,8 +4785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,7 +4798,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="43" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="64"/>
@@ -4648,7 +4819,7 @@
         <v>43376</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="41">
         <v>500000</v>
@@ -4659,7 +4830,7 @@
         <v>43376</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="41">
         <v>35000</v>
@@ -4670,7 +4841,7 @@
         <v>43376</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="41">
         <v>50000</v>
@@ -4681,7 +4852,7 @@
         <v>43386</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="41">
         <v>400000</v>
@@ -4692,7 +4863,7 @@
         <v>43386</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="41">
         <v>100000</v>
@@ -4703,7 +4874,7 @@
         <v>43386</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" s="41">
         <v>300000</v>
@@ -4714,7 +4885,7 @@
         <v>43393</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="41">
         <v>2900000</v>
@@ -4725,7 +4896,7 @@
         <v>43393</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="41">
         <v>403000</v>
@@ -4736,7 +4907,7 @@
         <v>43393</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" s="41">
         <v>700000</v>
@@ -4747,7 +4918,7 @@
         <v>43393</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="41">
         <v>1200000</v>
@@ -4758,7 +4929,7 @@
         <v>43393</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="41">
         <v>2100000</v>
@@ -4769,7 +4940,7 @@
         <v>43393</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="41">
         <v>100000</v>
@@ -4780,7 +4951,7 @@
         <v>43393</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15" s="41">
         <v>400000</v>
@@ -4791,7 +4962,7 @@
         <v>43393</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C16" s="41">
         <v>200000</v>
@@ -4802,7 +4973,7 @@
         <v>43393</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C17" s="41">
         <v>500000</v>
@@ -4813,7 +4984,7 @@
         <v>43400</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C18" s="41">
         <v>50000</v>
@@ -4824,7 +4995,7 @@
         <v>43400</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19" s="41">
         <v>1872000</v>
@@ -4835,7 +5006,7 @@
         <v>43400</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C20" s="41">
         <v>450000</v>
@@ -4846,7 +5017,7 @@
         <v>43400</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="41">
         <v>100000</v>
@@ -4857,7 +5028,7 @@
         <v>43420</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="41">
         <v>1200000</v>
@@ -4868,7 +5039,7 @@
         <v>43435</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="41">
         <v>300000</v>
@@ -4879,7 +5050,7 @@
         <v>43435</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C24" s="41">
         <v>1068000</v>
@@ -4890,7 +5061,7 @@
         <v>43440</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="41">
         <v>1000000</v>
@@ -4901,7 +5072,7 @@
         <v>43442</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="41">
         <v>1800000</v>
@@ -4912,7 +5083,7 @@
         <v>43442</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C27" s="41">
         <v>880000</v>
@@ -4923,7 +5094,7 @@
         <v>43442</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="41">
         <v>1200000</v>
@@ -4934,7 +5105,7 @@
         <v>43449</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="41">
         <v>2000000</v>
@@ -4951,7 +5122,7 @@
         <v>43449</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C30" s="41">
         <v>1000000</v>

--- a/informe de cuentas gabriel.xlsx
+++ b/informe de cuentas gabriel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="269">
   <si>
     <t>Plomería de Cada apartamento del 3,4 y 5 El segundo piso ya estaba pago. 800.000 Por cada uno.</t>
   </si>
@@ -425,9 +425,6 @@
     <t>Abono Gabriel 400 mil que retiro en castillas para ponchadora</t>
   </si>
   <si>
-    <t xml:space="preserve">Abono Gabriel Efectivo amaga </t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -746,9 +743,6 @@
     <t>tranferencia alvaro</t>
   </si>
   <si>
-    <t xml:space="preserve">Retiro para pagar nomina </t>
-  </si>
-  <si>
     <t>Enchape, Lavamanos, baños e incrustaciones de cada baño.  560.000 por cada baño OJO este valor incluía el revoque, del baño. 2 4 y 5</t>
   </si>
   <si>
@@ -815,7 +809,31 @@
     <t>Abono en el deposito hoy 22-12</t>
   </si>
   <si>
-    <t>Adicional se le reconoció 430.000 por materiales para el lavado de la fachada y pintada.</t>
+    <t xml:space="preserve">Pago compra de regalo de stiven </t>
+  </si>
+  <si>
+    <t>Pago  a jhon</t>
+  </si>
+  <si>
+    <t>Abono Gabriel Efectivo amaga  (retiro de 400 + 600)</t>
+  </si>
+  <si>
+    <t>Retiro para pagar nomina (retiro de 600+400)</t>
+  </si>
+  <si>
+    <t>Se le entrego tarjeta con 2900.000</t>
+  </si>
+  <si>
+    <t>Se le transfirio 2100.000</t>
+  </si>
+  <si>
+    <t>Adicional se le reconoció 1.000.000 por materiales para el lavado de la fachada y pintada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago para compra de contador de la milagrosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono gabriel transferencia </t>
   </si>
 </sst>
 </file>
@@ -940,7 +958,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1223,12 +1241,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1316,9 +1360,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1332,6 +1373,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1368,6 +1423,13 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1651,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,12 +1726,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -1767,23 +1829,23 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="12">
         <f>SUM(D3:D8)</f>
         <v>62168000</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1891,7 +1953,7 @@
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="5">
         <v>600000</v>
@@ -1921,17 +1983,17 @@
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B22" s="5">
-        <v>430000</v>
+        <v>1000000</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="11">
         <f>+C22*B22</f>
-        <v>430000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1966,7 +2028,7 @@
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25" s="5">
         <v>1630000</v>
@@ -2071,7 +2133,7 @@
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B32" s="5">
         <v>400000</v>
@@ -2091,23 +2153,23 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="12">
         <f>SUM(D14:D33)</f>
-        <v>73737000</v>
+        <v>74307000</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -2185,7 +2247,7 @@
     </row>
     <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B43" s="3">
         <v>560000</v>
@@ -2216,7 +2278,7 @@
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B45" s="3">
         <v>150000</v>
@@ -2337,7 +2399,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B53" s="5">
         <v>520000</v>
@@ -2503,7 +2565,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B64" s="5">
         <v>150000</v>
@@ -2518,7 +2580,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B65" s="5">
         <v>100000</v>
@@ -2533,7 +2595,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B66" s="5">
         <v>35000</v>
@@ -2548,7 +2610,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B67" s="5">
         <v>30000</v>
@@ -2563,7 +2625,7 @@
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B68" s="5">
         <v>200000</v>
@@ -2578,7 +2640,7 @@
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B69" s="5">
         <v>160000</v>
@@ -2598,23 +2660,23 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="54" t="s">
+      <c r="A71" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="55"/>
-      <c r="C71" s="56"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="12">
         <f>SUM(D39:D70)</f>
         <v>29564000</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="57" t="s">
+      <c r="A73" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
@@ -2693,11 +2755,11 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="56"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="65"/>
       <c r="D80" s="12">
         <f>SUM(D75:D79)</f>
         <v>9960000</v>
@@ -2709,7 +2771,7 @@
       </c>
       <c r="B83" s="20">
         <f>+$D$80+$D$71+$D$34+$D$9</f>
-        <v>175429000</v>
+        <v>175999000</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,8 +2783,8 @@
         <v>60</v>
       </c>
       <c r="B85" s="21">
-        <f>+Anexo1!C94</f>
-        <v>75188198</v>
+        <f>+Anexo1!C101</f>
+        <v>90088198</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2743,7 +2805,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B88" s="21">
         <v>880000</v>
@@ -2751,7 +2813,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B89" s="21">
         <v>577000</v>
@@ -2767,7 +2829,7 @@
       </c>
       <c r="B91" s="23">
         <f>+B83-B85-B86-B87-B88+B89</f>
-        <v>21594402</v>
+        <v>7264402</v>
       </c>
     </row>
   </sheetData>
@@ -2795,35 +2857,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80:C90"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="A1" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>134</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,7 +3567,7 @@
         <v>497000</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>43400</v>
       </c>
@@ -3516,7 +3578,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>43400</v>
       </c>
@@ -3527,7 +3589,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>43400</v>
       </c>
@@ -3538,7 +3600,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>43400</v>
       </c>
@@ -3549,7 +3611,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>43420</v>
       </c>
@@ -3560,7 +3622,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>43420</v>
       </c>
@@ -3571,7 +3633,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>43420</v>
       </c>
@@ -3582,7 +3644,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
         <v>43420</v>
       </c>
@@ -3593,7 +3655,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>43428</v>
       </c>
@@ -3604,7 +3666,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>43433</v>
       </c>
@@ -3615,7 +3677,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>43435</v>
       </c>
@@ -3626,7 +3688,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>43440</v>
       </c>
@@ -3637,251 +3699,347 @@
         <v>248000</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="30">
+    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="52">
         <v>43441</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="C77" s="31">
+      <c r="C77" s="54">
         <v>400000</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="30">
-        <v>43444</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C78" s="31">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="59">
+        <v>43445</v>
+      </c>
+      <c r="B78" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" s="56">
         <v>1000000</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="32">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="60">
         <v>43445</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="31">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="39">
+        <v>43449</v>
+      </c>
+      <c r="B80" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="C79" s="33">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="39">
-        <v>43450</v>
-      </c>
-      <c r="B80" s="51" t="s">
-        <v>253</v>
-      </c>
       <c r="C80" s="41">
-        <v>1400000</v>
-      </c>
+        <v>2000000</v>
+      </c>
+      <c r="D80" s="49"/>
       <c r="E80" s="42"/>
-      <c r="F80" s="50"/>
+      <c r="F80" s="49"/>
       <c r="G80" s="42"/>
-      <c r="H80" s="50"/>
+      <c r="H80" s="49"/>
       <c r="I80" s="42"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="42"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
+        <v>43449</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" s="41">
+        <v>1000000</v>
+      </c>
+      <c r="D81" s="49"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="42"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="60">
+        <v>43450</v>
+      </c>
+      <c r="B82" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" s="57">
+        <v>1400000</v>
+      </c>
+      <c r="E82" s="42"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="49"/>
+      <c r="K82" s="42"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="60">
         <v>43451</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B83" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" s="57">
+        <v>24725</v>
+      </c>
+      <c r="E83" s="42"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="42"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="60">
+        <v>43451</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" s="57">
+        <v>50000</v>
+      </c>
+      <c r="E84" s="42"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="42"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="60">
+        <v>43451</v>
+      </c>
+      <c r="B85" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="C81" s="41">
-        <v>24725</v>
-      </c>
-      <c r="E81" s="42"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="42"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="39">
-        <v>43451</v>
-      </c>
-      <c r="B82" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C82" s="41">
-        <v>50000</v>
-      </c>
-      <c r="E82" s="42"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="50"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="42"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="39">
-        <v>43451</v>
-      </c>
-      <c r="B83" s="51" t="s">
+      <c r="C85" s="57">
+        <v>600000</v>
+      </c>
+      <c r="E85" s="42"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="42"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="60">
+        <v>43452</v>
+      </c>
+      <c r="B86" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" s="57">
+        <v>550000</v>
+      </c>
+      <c r="E86" s="42"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="42"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="60">
+        <v>43454</v>
+      </c>
+      <c r="B87" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="C83" s="41">
-        <v>600000</v>
-      </c>
-      <c r="E83" s="42"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="42"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="39">
-        <v>43452</v>
-      </c>
-      <c r="B84" s="51" t="s">
+      <c r="C87" s="57">
+        <v>100000</v>
+      </c>
+      <c r="E87" s="42"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="42"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="60">
+        <v>43454</v>
+      </c>
+      <c r="B88" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="C84" s="41">
-        <v>550000</v>
-      </c>
-      <c r="E84" s="42"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="42"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="39">
-        <v>43454</v>
-      </c>
-      <c r="B85" s="51" t="s">
+      <c r="C88" s="57">
+        <v>500000</v>
+      </c>
+      <c r="E88" s="42"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="42"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="60">
+        <v>43455</v>
+      </c>
+      <c r="B89" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="C85" s="41">
-        <v>100000</v>
-      </c>
-      <c r="E85" s="42"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="42"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="39">
-        <v>43454</v>
-      </c>
-      <c r="B86" s="51" t="s">
+      <c r="C89" s="57">
+        <v>200000</v>
+      </c>
+      <c r="E89" s="42"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="42"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="60">
+        <v>43456</v>
+      </c>
+      <c r="B90" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="C86" s="41">
+      <c r="C90" s="57">
+        <v>1000000</v>
+      </c>
+      <c r="E90" s="42"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="42"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="60">
+        <v>43456</v>
+      </c>
+      <c r="B91" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" s="57">
+        <v>850000</v>
+      </c>
+      <c r="E91" s="42"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="42"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="60">
+        <v>43456</v>
+      </c>
+      <c r="B92" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="C92" s="57">
+        <v>1000000</v>
+      </c>
+      <c r="E92" s="42"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="42"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="60">
+        <v>43456</v>
+      </c>
+      <c r="B93" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="31">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="61">
+        <v>43456</v>
+      </c>
+      <c r="B94" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="C94" s="33">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="61">
+        <v>43828</v>
+      </c>
+      <c r="B95" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="33">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="61">
+        <v>43470</v>
+      </c>
+      <c r="B96" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="C96" s="33">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="76">
+        <v>43472</v>
+      </c>
+      <c r="B97" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C97" s="77">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="76">
+        <v>43475</v>
+      </c>
+      <c r="B98" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C98" s="77">
         <v>500000</v>
       </c>
-      <c r="E86" s="42"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="42"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="39">
-        <v>43455</v>
-      </c>
-      <c r="B87" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="C87" s="41">
-        <v>200000</v>
-      </c>
-      <c r="E87" s="42"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="42"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="39">
-        <v>43456</v>
-      </c>
-      <c r="B88" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="C88" s="41">
-        <v>1000000</v>
-      </c>
-      <c r="E88" s="42"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="50"/>
-      <c r="K88" s="42"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="39">
-        <v>43456</v>
-      </c>
-      <c r="B89" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="C89" s="41">
-        <v>850000</v>
-      </c>
-      <c r="E89" s="42"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="42"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="39">
-        <v>43456</v>
-      </c>
-      <c r="B90" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="C90" s="41">
-        <v>1000000</v>
-      </c>
-      <c r="E90" s="42"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="42"/>
-    </row>
-    <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="39">
-        <v>43456</v>
-      </c>
-      <c r="B91" s="51"/>
-      <c r="C91" s="33"/>
-    </row>
-    <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B94" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="35">
-        <f>SUM(C3:C93)</f>
-        <v>75188198</v>
+    </row>
+    <row r="99" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C99" s="78"/>
+    </row>
+    <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B101" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="35">
+        <f>SUM(C3:C100)</f>
+        <v>90088198</v>
       </c>
     </row>
   </sheetData>
@@ -3909,29 +4067,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="36" t="s">
         <v>134</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>43196</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>139</v>
+      <c r="B3" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="C3" s="37">
         <v>4000000</v>
@@ -3941,8 +4099,8 @@
       <c r="A4" s="30">
         <v>43196</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>140</v>
+      <c r="B4" s="45" t="s">
+        <v>139</v>
       </c>
       <c r="C4" s="37">
         <v>2000000</v>
@@ -3952,8 +4110,8 @@
       <c r="A5" s="30">
         <v>43196</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>141</v>
+      <c r="B5" s="45" t="s">
+        <v>140</v>
       </c>
       <c r="C5" s="37">
         <v>900000</v>
@@ -3963,8 +4121,8 @@
       <c r="A6" s="30">
         <v>43204</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>142</v>
+      <c r="B6" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="C6" s="37">
         <v>1000000</v>
@@ -3974,8 +4132,8 @@
       <c r="A7" s="30">
         <v>43200</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>143</v>
+      <c r="B7" s="45" t="s">
+        <v>142</v>
       </c>
       <c r="C7" s="37">
         <v>210000</v>
@@ -3985,8 +4143,8 @@
       <c r="A8" s="30">
         <v>43203</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>144</v>
+      <c r="B8" s="45" t="s">
+        <v>143</v>
       </c>
       <c r="C8" s="37">
         <v>150000</v>
@@ -3996,8 +4154,8 @@
       <c r="A9" s="30">
         <v>43203</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>145</v>
+      <c r="B9" s="45" t="s">
+        <v>144</v>
       </c>
       <c r="C9" s="37">
         <v>1000000</v>
@@ -4007,8 +4165,8 @@
       <c r="A10" s="30">
         <v>43203</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>143</v>
+      <c r="B10" s="45" t="s">
+        <v>142</v>
       </c>
       <c r="C10" s="37">
         <v>180000</v>
@@ -4018,8 +4176,8 @@
       <c r="A11" s="30">
         <v>43203</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>146</v>
+      <c r="B11" s="45" t="s">
+        <v>145</v>
       </c>
       <c r="C11" s="37">
         <v>170000</v>
@@ -4029,8 +4187,8 @@
       <c r="A12" s="30">
         <v>43203</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>147</v>
+      <c r="B12" s="45" t="s">
+        <v>146</v>
       </c>
       <c r="C12" s="37">
         <v>60000</v>
@@ -4040,8 +4198,8 @@
       <c r="A13" s="30">
         <v>43203</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>148</v>
+      <c r="B13" s="45" t="s">
+        <v>147</v>
       </c>
       <c r="C13" s="37">
         <v>1000000</v>
@@ -4051,8 +4209,8 @@
       <c r="A14" s="30">
         <v>43203</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>149</v>
+      <c r="B14" s="45" t="s">
+        <v>148</v>
       </c>
       <c r="C14" s="37">
         <v>2308000</v>
@@ -4062,8 +4220,8 @@
       <c r="A15" s="30">
         <v>43203</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>150</v>
+      <c r="B15" s="45" t="s">
+        <v>149</v>
       </c>
       <c r="C15" s="37">
         <v>100000</v>
@@ -4074,8 +4232,8 @@
       <c r="A16" s="30">
         <v>43203</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>143</v>
+      <c r="B16" s="45" t="s">
+        <v>142</v>
       </c>
       <c r="C16" s="37">
         <v>180000</v>
@@ -4085,8 +4243,8 @@
       <c r="A17" s="30">
         <v>43203</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>143</v>
+      <c r="B17" s="45" t="s">
+        <v>142</v>
       </c>
       <c r="C17" s="37">
         <v>180000</v>
@@ -4096,8 +4254,8 @@
       <c r="A18" s="30">
         <v>43203</v>
       </c>
-      <c r="B18" s="46" t="s">
-        <v>151</v>
+      <c r="B18" s="45" t="s">
+        <v>150</v>
       </c>
       <c r="C18" s="37">
         <v>240000</v>
@@ -4107,8 +4265,8 @@
       <c r="A19" s="30">
         <v>43203</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>152</v>
+      <c r="B19" s="45" t="s">
+        <v>151</v>
       </c>
       <c r="C19" s="37">
         <v>40000</v>
@@ -4118,8 +4276,8 @@
       <c r="A20" s="30">
         <v>43203</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>153</v>
+      <c r="B20" s="45" t="s">
+        <v>152</v>
       </c>
       <c r="C20" s="37">
         <v>2000000</v>
@@ -4129,8 +4287,8 @@
       <c r="A21" s="30">
         <v>43203</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>154</v>
+      <c r="B21" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="C21" s="37">
         <v>230000</v>
@@ -4140,8 +4298,8 @@
       <c r="A22" s="30">
         <v>43203</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>155</v>
+      <c r="B22" s="45" t="s">
+        <v>154</v>
       </c>
       <c r="C22" s="37">
         <v>1067000</v>
@@ -4151,8 +4309,8 @@
       <c r="A23" s="30">
         <v>43203</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>156</v>
+      <c r="B23" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="C23" s="37">
         <v>130000</v>
@@ -4162,8 +4320,8 @@
       <c r="A24" s="30">
         <v>43203</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>157</v>
+      <c r="B24" s="45" t="s">
+        <v>156</v>
       </c>
       <c r="C24" s="37">
         <v>500000</v>
@@ -4173,8 +4331,8 @@
       <c r="A25" s="30">
         <v>43203</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>158</v>
+      <c r="B25" s="45" t="s">
+        <v>157</v>
       </c>
       <c r="C25" s="37">
         <v>50000</v>
@@ -4184,8 +4342,8 @@
       <c r="A26" s="30">
         <v>43203</v>
       </c>
-      <c r="B26" s="46" t="s">
-        <v>151</v>
+      <c r="B26" s="45" t="s">
+        <v>150</v>
       </c>
       <c r="C26" s="37">
         <v>100000</v>
@@ -4195,8 +4353,8 @@
       <c r="A27" s="30">
         <v>43203</v>
       </c>
-      <c r="B27" s="46" t="s">
-        <v>159</v>
+      <c r="B27" s="45" t="s">
+        <v>158</v>
       </c>
       <c r="C27" s="37">
         <v>931400</v>
@@ -4206,8 +4364,8 @@
       <c r="A28" s="30">
         <v>43203</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>160</v>
+      <c r="B28" s="45" t="s">
+        <v>159</v>
       </c>
       <c r="C28" s="37">
         <v>302000</v>
@@ -4217,8 +4375,8 @@
       <c r="A29" s="30">
         <v>43203</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>161</v>
+      <c r="B29" s="45" t="s">
+        <v>160</v>
       </c>
       <c r="C29" s="37">
         <v>4000000</v>
@@ -4228,8 +4386,8 @@
       <c r="A30" s="30">
         <v>43203</v>
       </c>
-      <c r="B30" s="46" t="s">
-        <v>162</v>
+      <c r="B30" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="C30" s="37">
         <v>180000</v>
@@ -4239,8 +4397,8 @@
       <c r="A31" s="30">
         <v>43203</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>159</v>
+      <c r="B31" s="45" t="s">
+        <v>158</v>
       </c>
       <c r="C31" s="37">
         <v>1064000</v>
@@ -4250,8 +4408,8 @@
       <c r="A32" s="30">
         <v>43203</v>
       </c>
-      <c r="B32" s="46" t="s">
-        <v>163</v>
+      <c r="B32" s="45" t="s">
+        <v>162</v>
       </c>
       <c r="C32" s="37">
         <v>50000</v>
@@ -4261,8 +4419,8 @@
       <c r="A33" s="30">
         <v>43232</v>
       </c>
-      <c r="B33" s="46" t="s">
-        <v>164</v>
+      <c r="B33" s="45" t="s">
+        <v>163</v>
       </c>
       <c r="C33" s="37">
         <v>2000000</v>
@@ -4272,8 +4430,8 @@
       <c r="A34" s="30">
         <v>43237</v>
       </c>
-      <c r="B34" s="46" t="s">
-        <v>164</v>
+      <c r="B34" s="45" t="s">
+        <v>163</v>
       </c>
       <c r="C34" s="37">
         <v>1500000</v>
@@ -4283,8 +4441,8 @@
       <c r="A35" s="30">
         <v>43239</v>
       </c>
-      <c r="B35" s="46" t="s">
-        <v>165</v>
+      <c r="B35" s="45" t="s">
+        <v>164</v>
       </c>
       <c r="C35" s="37">
         <v>3967000</v>
@@ -4294,8 +4452,8 @@
       <c r="A36" s="30">
         <v>43237</v>
       </c>
-      <c r="B36" s="46" t="s">
-        <v>166</v>
+      <c r="B36" s="45" t="s">
+        <v>165</v>
       </c>
       <c r="C36" s="37">
         <v>400000</v>
@@ -4305,8 +4463,8 @@
       <c r="A37" s="30">
         <v>43237</v>
       </c>
-      <c r="B37" s="46" t="s">
-        <v>167</v>
+      <c r="B37" s="45" t="s">
+        <v>166</v>
       </c>
       <c r="C37" s="37">
         <v>714000</v>
@@ -4316,8 +4474,8 @@
       <c r="A38" s="30">
         <v>43237</v>
       </c>
-      <c r="B38" s="46" t="s">
-        <v>168</v>
+      <c r="B38" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="C38" s="37">
         <v>425000</v>
@@ -4327,8 +4485,8 @@
       <c r="A39" s="30">
         <v>43237</v>
       </c>
-      <c r="B39" s="46" t="s">
-        <v>143</v>
+      <c r="B39" s="45" t="s">
+        <v>142</v>
       </c>
       <c r="C39" s="37">
         <v>180000</v>
@@ -4338,8 +4496,8 @@
       <c r="A40" s="30">
         <v>43243</v>
       </c>
-      <c r="B40" s="46" t="s">
-        <v>169</v>
+      <c r="B40" s="45" t="s">
+        <v>168</v>
       </c>
       <c r="C40" s="37">
         <v>1000000</v>
@@ -4349,8 +4507,8 @@
       <c r="A41" s="30">
         <v>43248</v>
       </c>
-      <c r="B41" s="46" t="s">
-        <v>170</v>
+      <c r="B41" s="45" t="s">
+        <v>169</v>
       </c>
       <c r="C41" s="37">
         <v>2360000</v>
@@ -4360,8 +4518,8 @@
       <c r="A42" s="30">
         <v>43253</v>
       </c>
-      <c r="B42" s="46" t="s">
-        <v>171</v>
+      <c r="B42" s="45" t="s">
+        <v>170</v>
       </c>
       <c r="C42" s="37">
         <v>300000</v>
@@ -4371,8 +4529,8 @@
       <c r="A43" s="30">
         <v>43253</v>
       </c>
-      <c r="B43" s="46" t="s">
-        <v>172</v>
+      <c r="B43" s="45" t="s">
+        <v>171</v>
       </c>
       <c r="C43" s="37">
         <v>600000</v>
@@ -4382,8 +4540,8 @@
       <c r="A44" s="30">
         <v>43253</v>
       </c>
-      <c r="B44" s="46" t="s">
-        <v>173</v>
+      <c r="B44" s="45" t="s">
+        <v>172</v>
       </c>
       <c r="C44" s="37">
         <v>180000</v>
@@ -4393,8 +4551,8 @@
       <c r="A45" s="30">
         <v>43253</v>
       </c>
-      <c r="B45" s="46" t="s">
-        <v>174</v>
+      <c r="B45" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="C45" s="37">
         <v>1000000</v>
@@ -4404,8 +4562,8 @@
       <c r="A46" s="30">
         <v>43253</v>
       </c>
-      <c r="B46" s="46" t="s">
-        <v>175</v>
+      <c r="B46" s="45" t="s">
+        <v>174</v>
       </c>
       <c r="C46" s="37">
         <v>2800000</v>
@@ -4415,8 +4573,8 @@
       <c r="A47" s="30">
         <v>43253</v>
       </c>
-      <c r="B47" s="46" t="s">
-        <v>176</v>
+      <c r="B47" s="45" t="s">
+        <v>175</v>
       </c>
       <c r="C47" s="37">
         <v>500000</v>
@@ -4426,8 +4584,8 @@
       <c r="A48" s="30">
         <v>43253</v>
       </c>
-      <c r="B48" s="46" t="s">
-        <v>177</v>
+      <c r="B48" s="45" t="s">
+        <v>176</v>
       </c>
       <c r="C48" s="37">
         <v>1400000</v>
@@ -4437,8 +4595,8 @@
       <c r="A49" s="30">
         <v>43248</v>
       </c>
-      <c r="B49" s="46" t="s">
-        <v>178</v>
+      <c r="B49" s="45" t="s">
+        <v>177</v>
       </c>
       <c r="C49" s="37">
         <v>800000</v>
@@ -4448,8 +4606,8 @@
       <c r="A50" s="30">
         <v>43248</v>
       </c>
-      <c r="B50" s="46" t="s">
-        <v>179</v>
+      <c r="B50" s="45" t="s">
+        <v>178</v>
       </c>
       <c r="C50" s="37">
         <v>230000</v>
@@ -4459,8 +4617,8 @@
       <c r="A51" s="30">
         <v>43248</v>
       </c>
-      <c r="B51" s="46" t="s">
-        <v>180</v>
+      <c r="B51" s="45" t="s">
+        <v>179</v>
       </c>
       <c r="C51" s="37">
         <v>200000</v>
@@ -4470,8 +4628,8 @@
       <c r="A52" s="30">
         <v>43248</v>
       </c>
-      <c r="B52" s="46" t="s">
-        <v>181</v>
+      <c r="B52" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="C52" s="37">
         <v>2000000</v>
@@ -4481,10 +4639,10 @@
       <c r="A53" s="30">
         <v>43259</v>
       </c>
-      <c r="B53" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="52">
+      <c r="B53" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="51">
         <v>1400000</v>
       </c>
     </row>
@@ -4492,8 +4650,8 @@
       <c r="A54" s="30">
         <v>43260</v>
       </c>
-      <c r="B54" s="46" t="s">
-        <v>183</v>
+      <c r="B54" s="45" t="s">
+        <v>182</v>
       </c>
       <c r="C54" s="37">
         <v>1100000</v>
@@ -4503,10 +4661,10 @@
       <c r="A55" s="30">
         <v>43260</v>
       </c>
-      <c r="B55" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="C55" s="52">
+      <c r="B55" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="51">
         <v>600000</v>
       </c>
     </row>
@@ -4514,8 +4672,8 @@
       <c r="A56" s="30">
         <v>43260</v>
       </c>
-      <c r="B56" s="46" t="s">
-        <v>185</v>
+      <c r="B56" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="C56" s="37">
         <v>400000</v>
@@ -4525,8 +4683,8 @@
       <c r="A57" s="30">
         <v>43260</v>
       </c>
-      <c r="B57" s="46" t="s">
-        <v>186</v>
+      <c r="B57" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="C57" s="37">
         <v>200000</v>
@@ -4536,8 +4694,8 @@
       <c r="A58" s="30">
         <v>43260</v>
       </c>
-      <c r="B58" s="46" t="s">
-        <v>187</v>
+      <c r="B58" s="45" t="s">
+        <v>186</v>
       </c>
       <c r="C58" s="37">
         <v>1400000</v>
@@ -4547,8 +4705,8 @@
       <c r="A59" s="30">
         <v>43265</v>
       </c>
-      <c r="B59" s="46" t="s">
-        <v>188</v>
+      <c r="B59" s="45" t="s">
+        <v>187</v>
       </c>
       <c r="C59" s="37">
         <v>1000000</v>
@@ -4558,8 +4716,8 @@
       <c r="A60" s="30">
         <v>43265</v>
       </c>
-      <c r="B60" s="46" t="s">
-        <v>189</v>
+      <c r="B60" s="45" t="s">
+        <v>188</v>
       </c>
       <c r="C60" s="37">
         <v>700000</v>
@@ -4569,8 +4727,8 @@
       <c r="A61" s="30">
         <v>43265</v>
       </c>
-      <c r="B61" s="46" t="s">
-        <v>190</v>
+      <c r="B61" s="45" t="s">
+        <v>189</v>
       </c>
       <c r="C61" s="37">
         <v>200000</v>
@@ -4580,8 +4738,8 @@
       <c r="A62" s="30">
         <v>43267</v>
       </c>
-      <c r="B62" s="46" t="s">
-        <v>191</v>
+      <c r="B62" s="45" t="s">
+        <v>190</v>
       </c>
       <c r="C62" s="37">
         <v>400000</v>
@@ -4591,8 +4749,8 @@
       <c r="A63" s="30">
         <v>43267</v>
       </c>
-      <c r="B63" s="46" t="s">
-        <v>192</v>
+      <c r="B63" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="C63" s="37">
         <v>500000</v>
@@ -4602,8 +4760,8 @@
       <c r="A64" s="30">
         <v>43267</v>
       </c>
-      <c r="B64" s="46" t="s">
-        <v>193</v>
+      <c r="B64" s="45" t="s">
+        <v>192</v>
       </c>
       <c r="C64" s="37">
         <v>30000</v>
@@ -4613,8 +4771,8 @@
       <c r="A65" s="30">
         <v>43267</v>
       </c>
-      <c r="B65" s="46" t="s">
-        <v>194</v>
+      <c r="B65" s="45" t="s">
+        <v>193</v>
       </c>
       <c r="C65" s="37">
         <v>150000</v>
@@ -4624,8 +4782,8 @@
       <c r="A66" s="30">
         <v>43274</v>
       </c>
-      <c r="B66" s="46" t="s">
-        <v>195</v>
+      <c r="B66" s="45" t="s">
+        <v>194</v>
       </c>
       <c r="C66" s="37">
         <v>1800000</v>
@@ -4635,8 +4793,8 @@
       <c r="A67" s="30">
         <v>43281</v>
       </c>
-      <c r="B67" s="46" t="s">
-        <v>196</v>
+      <c r="B67" s="45" t="s">
+        <v>195</v>
       </c>
       <c r="C67" s="37">
         <v>80000</v>
@@ -4646,8 +4804,8 @@
       <c r="A68" s="30">
         <v>43288</v>
       </c>
-      <c r="B68" s="46" t="s">
-        <v>197</v>
+      <c r="B68" s="45" t="s">
+        <v>196</v>
       </c>
       <c r="C68" s="37">
         <v>150000</v>
@@ -4657,8 +4815,8 @@
       <c r="A69" s="30">
         <v>43288</v>
       </c>
-      <c r="B69" s="46" t="s">
-        <v>198</v>
+      <c r="B69" s="45" t="s">
+        <v>197</v>
       </c>
       <c r="C69" s="37">
         <v>100000</v>
@@ -4668,8 +4826,8 @@
       <c r="A70" s="30">
         <v>43288</v>
       </c>
-      <c r="B70" s="46" t="s">
-        <v>199</v>
+      <c r="B70" s="45" t="s">
+        <v>198</v>
       </c>
       <c r="C70" s="37">
         <v>50000</v>
@@ -4679,8 +4837,8 @@
       <c r="A71" s="30">
         <v>43295</v>
       </c>
-      <c r="B71" s="46" t="s">
-        <v>200</v>
+      <c r="B71" s="45" t="s">
+        <v>199</v>
       </c>
       <c r="C71" s="37">
         <v>100000</v>
@@ -4690,8 +4848,8 @@
       <c r="A72" s="30">
         <v>43300</v>
       </c>
-      <c r="B72" s="46" t="s">
-        <v>201</v>
+      <c r="B72" s="45" t="s">
+        <v>200</v>
       </c>
       <c r="C72" s="37">
         <v>50000</v>
@@ -4701,8 +4859,8 @@
       <c r="A73" s="30">
         <v>43300</v>
       </c>
-      <c r="B73" s="46" t="s">
-        <v>202</v>
+      <c r="B73" s="45" t="s">
+        <v>201</v>
       </c>
       <c r="C73" s="37">
         <v>50000</v>
@@ -4712,8 +4870,8 @@
       <c r="A74" s="30">
         <v>43300</v>
       </c>
-      <c r="B74" s="46" t="s">
-        <v>203</v>
+      <c r="B74" s="45" t="s">
+        <v>202</v>
       </c>
       <c r="C74" s="37">
         <v>160000</v>
@@ -4723,8 +4881,8 @@
       <c r="A75" s="30">
         <v>43300</v>
       </c>
-      <c r="B75" s="46" t="s">
-        <v>204</v>
+      <c r="B75" s="45" t="s">
+        <v>203</v>
       </c>
       <c r="C75" s="37">
         <v>250000</v>
@@ -4734,8 +4892,8 @@
       <c r="A76" s="30">
         <v>43300</v>
       </c>
-      <c r="B76" s="46" t="s">
-        <v>205</v>
+      <c r="B76" s="45" t="s">
+        <v>204</v>
       </c>
       <c r="C76" s="37">
         <v>830000</v>
@@ -4745,8 +4903,8 @@
       <c r="A77" s="30">
         <v>43300</v>
       </c>
-      <c r="B77" s="46" t="s">
-        <v>206</v>
+      <c r="B77" s="45" t="s">
+        <v>205</v>
       </c>
       <c r="C77" s="37">
         <v>200000</v>
@@ -4756,8 +4914,8 @@
       <c r="A78" s="32">
         <v>43300</v>
       </c>
-      <c r="B78" s="47" t="s">
-        <v>207</v>
+      <c r="B78" s="46" t="s">
+        <v>206</v>
       </c>
       <c r="C78" s="38">
         <v>60000</v>
@@ -4765,7 +4923,7 @@
     </row>
     <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B80" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" s="35">
         <f>SUM(C3:C79)</f>
@@ -4783,10 +4941,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A29:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4797,29 +4955,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="43" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
+      <c r="A1" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="36" t="s">
         <v>134</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>43376</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>208</v>
+      <c r="B3" s="47" t="s">
+        <v>207</v>
       </c>
       <c r="C3" s="41">
         <v>500000</v>
@@ -4829,8 +4987,8 @@
       <c r="A4" s="39">
         <v>43376</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>209</v>
+      <c r="B4" s="47" t="s">
+        <v>208</v>
       </c>
       <c r="C4" s="41">
         <v>35000</v>
@@ -4840,8 +4998,8 @@
       <c r="A5" s="39">
         <v>43376</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>210</v>
+      <c r="B5" s="47" t="s">
+        <v>209</v>
       </c>
       <c r="C5" s="41">
         <v>50000</v>
@@ -4851,8 +5009,8 @@
       <c r="A6" s="39">
         <v>43386</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>211</v>
+      <c r="B6" s="47" t="s">
+        <v>210</v>
       </c>
       <c r="C6" s="41">
         <v>400000</v>
@@ -4862,8 +5020,8 @@
       <c r="A7" s="39">
         <v>43386</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>212</v>
+      <c r="B7" s="47" t="s">
+        <v>211</v>
       </c>
       <c r="C7" s="41">
         <v>100000</v>
@@ -4873,8 +5031,8 @@
       <c r="A8" s="39">
         <v>43386</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>213</v>
+      <c r="B8" s="47" t="s">
+        <v>212</v>
       </c>
       <c r="C8" s="41">
         <v>300000</v>
@@ -4884,8 +5042,8 @@
       <c r="A9" s="39">
         <v>43393</v>
       </c>
-      <c r="B9" s="48" t="s">
-        <v>214</v>
+      <c r="B9" s="47" t="s">
+        <v>213</v>
       </c>
       <c r="C9" s="41">
         <v>2900000</v>
@@ -4895,8 +5053,8 @@
       <c r="A10" s="39">
         <v>43393</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>215</v>
+      <c r="B10" s="47" t="s">
+        <v>214</v>
       </c>
       <c r="C10" s="41">
         <v>403000</v>
@@ -4906,8 +5064,8 @@
       <c r="A11" s="39">
         <v>43393</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>216</v>
+      <c r="B11" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="C11" s="41">
         <v>700000</v>
@@ -4917,8 +5075,8 @@
       <c r="A12" s="39">
         <v>43393</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>217</v>
+      <c r="B12" s="47" t="s">
+        <v>216</v>
       </c>
       <c r="C12" s="41">
         <v>1200000</v>
@@ -4928,8 +5086,8 @@
       <c r="A13" s="39">
         <v>43393</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>218</v>
+      <c r="B13" s="47" t="s">
+        <v>217</v>
       </c>
       <c r="C13" s="41">
         <v>2100000</v>
@@ -4939,8 +5097,8 @@
       <c r="A14" s="39">
         <v>43393</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>219</v>
+      <c r="B14" s="47" t="s">
+        <v>218</v>
       </c>
       <c r="C14" s="41">
         <v>100000</v>
@@ -4950,8 +5108,8 @@
       <c r="A15" s="39">
         <v>43393</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>220</v>
+      <c r="B15" s="47" t="s">
+        <v>219</v>
       </c>
       <c r="C15" s="41">
         <v>400000</v>
@@ -4961,187 +5119,153 @@
       <c r="A16" s="39">
         <v>43393</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>221</v>
+      <c r="B16" s="47" t="s">
+        <v>220</v>
       </c>
       <c r="C16" s="41">
         <v>200000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>43393</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>222</v>
+      <c r="B17" s="47" t="s">
+        <v>221</v>
       </c>
       <c r="C17" s="41">
         <v>500000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>43400</v>
       </c>
-      <c r="B18" s="48" t="s">
-        <v>223</v>
+      <c r="B18" s="47" t="s">
+        <v>222</v>
       </c>
       <c r="C18" s="41">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>43400</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>224</v>
+      <c r="B19" s="47" t="s">
+        <v>223</v>
       </c>
       <c r="C19" s="41">
         <v>1872000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>43400</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>225</v>
+      <c r="B20" s="47" t="s">
+        <v>224</v>
       </c>
       <c r="C20" s="41">
         <v>450000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>43400</v>
       </c>
-      <c r="B21" s="48" t="s">
-        <v>226</v>
+      <c r="B21" s="47" t="s">
+        <v>225</v>
       </c>
       <c r="C21" s="41">
         <v>100000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>43420</v>
       </c>
-      <c r="B22" s="48" t="s">
-        <v>227</v>
+      <c r="B22" s="47" t="s">
+        <v>226</v>
       </c>
       <c r="C22" s="41">
         <v>1200000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>43435</v>
       </c>
-      <c r="B23" s="48" t="s">
-        <v>228</v>
+      <c r="B23" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="C23" s="41">
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>43435</v>
       </c>
-      <c r="B24" s="48" t="s">
-        <v>229</v>
+      <c r="B24" s="47" t="s">
+        <v>228</v>
       </c>
       <c r="C24" s="41">
         <v>1068000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>43440</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>230</v>
+      <c r="B25" s="48" t="s">
+        <v>229</v>
       </c>
       <c r="C25" s="41">
         <v>1000000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>43442</v>
       </c>
-      <c r="B26" s="48" t="s">
-        <v>231</v>
+      <c r="B26" s="47" t="s">
+        <v>230</v>
       </c>
       <c r="C26" s="41">
         <v>1800000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>43442</v>
       </c>
-      <c r="B27" s="48" t="s">
-        <v>232</v>
+      <c r="B27" s="47" t="s">
+        <v>231</v>
       </c>
       <c r="C27" s="41">
         <v>880000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>43442</v>
       </c>
-      <c r="B28" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" s="41">
+      <c r="B28" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="75">
         <v>1200000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
-        <v>43449</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="41">
-        <v>2000000</v>
-      </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="42"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
-        <v>43449</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="C30" s="41">
-        <v>1000000</v>
-      </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="42"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="35">
-        <f>SUM(C3:C31)</f>
-        <v>22808000</v>
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="35">
+        <f>SUM(C3:C32)</f>
+        <v>19808000</v>
       </c>
     </row>
   </sheetData>
